--- a/sample.xlsx
+++ b/sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Predictive Score\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Predictive-Score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BABEDDE-C225-4A45-8A0C-355BFA97A406}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4C17C2-BDE9-4DC5-A067-0E92EAF8618C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{216833D0-3D1B-4F71-897C-3C2FA20E8075}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="109">
   <si>
     <t>RID</t>
   </si>
@@ -180,9 +180,6 @@
     <t xml:space="preserve"> ABN Amro Bank,Hongkong and Shanghai Banking </t>
   </si>
   <si>
-    <t xml:space="preserve"> ACCOUNTANT EXCUCATIVE</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ace Corporation</t>
   </si>
   <si>
@@ -349,6 +346,18 @@
   </si>
   <si>
     <t xml:space="preserve"> ACCOUNTS MANAGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ACCOUNTANT EXCUCATIVE</t>
+  </si>
+  <si>
+    <t>BA-FT</t>
+  </si>
+  <si>
+    <t>MBA - Finance</t>
+  </si>
+  <si>
+    <t>AGRI-BUSS MNGT</t>
   </si>
 </sst>
 </file>
@@ -411,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -531,11 +540,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -672,6 +710,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FC2904-9D94-4AEB-BDA2-EB230A9E6C67}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>3</v>
@@ -1029,518 +1080,561 @@
         <v>4</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="17" t="s">
         <v>100</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>101</v>
       </c>
       <c r="P1" s="16" t="s">
         <v>6</v>
       </c>
       <c r="Q1" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="S1" s="19" t="s">
+    </row>
+    <row r="2" spans="1:19" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="96">
+        <v>88</v>
+      </c>
+      <c r="B2" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="96">
+        <v>31</v>
+      </c>
+      <c r="D2" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="96">
+        <v>51.9</v>
+      </c>
+      <c r="H2" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="96">
+        <v>56</v>
+      </c>
+      <c r="L2" s="102"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+    </row>
+    <row r="3" spans="1:19" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>88</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3">
+        <v>67</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="58" t="s">
         <v>104</v>
       </c>
+      <c r="N3">
+        <v>1000</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" s="88" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="4" spans="1:19" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>324</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4">
+        <v>32</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>89</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4">
+        <v>88.8</v>
+      </c>
+      <c r="L4" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4">
+        <v>8000</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" s="89" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>56</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>49</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>53.6</v>
+      </c>
+      <c r="L5" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5">
+        <v>3434</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q5" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="S5" s="90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>45</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C6">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6">
+        <v>90</v>
+      </c>
+      <c r="L6" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="M6" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6">
+        <v>56756</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="S6" s="91" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="84.75" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>236</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>45</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G2">
+      <c r="G7">
+        <v>9.6</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7">
+        <v>7.7</v>
+      </c>
+      <c r="L7" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="61"/>
+      <c r="N7">
+        <v>52345</v>
+      </c>
+      <c r="O7">
+        <v>8</v>
+      </c>
+      <c r="P7" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="S7" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2">
-        <v>67</v>
-      </c>
-      <c r="L2" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="N2">
-        <v>1000</v>
-      </c>
-      <c r="O2">
+    </row>
+    <row r="8" spans="1:19" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>237</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>23</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>99</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8">
+        <v>6.6</v>
+      </c>
+      <c r="L8" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8">
+        <v>87675</v>
+      </c>
+      <c r="O8">
         <v>3</v>
       </c>
-      <c r="P2" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q2" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="R2" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="S2" s="88" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>324</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>32</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3">
+      <c r="P8" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="S8" s="93" t="s">
         <v>89</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3">
-        <v>88.8</v>
-      </c>
-      <c r="L3" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3">
-        <v>8000</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q3" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="S3" s="89" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>56</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4">
-        <v>49</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4">
-        <v>53.6</v>
-      </c>
-      <c r="L4" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4">
-        <v>3434</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q4" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="R4" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="S4" s="90" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>45</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>77</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5">
-        <v>90</v>
-      </c>
-      <c r="L5" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5">
-        <v>56756</v>
-      </c>
-      <c r="O5">
-        <v>6</v>
-      </c>
-      <c r="P5" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q5" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="R5" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="S5" s="91" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="84.75" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>236</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>45</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6">
-        <v>9.6</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6">
-        <v>7.7</v>
-      </c>
-      <c r="L6" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="61"/>
-      <c r="N6">
-        <v>52345</v>
-      </c>
-      <c r="O6">
-        <v>8</v>
-      </c>
-      <c r="P6" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q6" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="R6" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="S6" s="92" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>237</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>23</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7">
-        <v>99</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7">
-        <v>6.6</v>
-      </c>
-      <c r="L7" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7">
-        <v>87675</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="P7" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="R7" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="S7" s="93" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>978</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>94</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8">
-        <v>78</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8">
-        <v>34.4</v>
-      </c>
-      <c r="L8" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="N8">
-        <v>2344</v>
-      </c>
-      <c r="O8">
-        <v>8</v>
-      </c>
-      <c r="P8" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q8" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="R8" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="S8" s="94" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>458</v>
+        <v>978</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>66</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>19</v>
+        <v>94</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9">
-        <v>3.4</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="49" t="s">
-        <v>47</v>
+        <v>78</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L9" s="57" t="s">
-        <v>55</v>
+        <v>34.4</v>
+      </c>
+      <c r="L9" s="56" t="s">
+        <v>53</v>
       </c>
       <c r="M9" s="63" t="s">
         <v>59</v>
       </c>
       <c r="N9">
+        <v>2344</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q9" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="S9" s="94" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>458</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>66</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>3.4</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10">
         <v>234324</v>
       </c>
-      <c r="O9">
+      <c r="O10">
         <v>3</v>
       </c>
-      <c r="P9" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q9" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="R9" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="S9" s="95" t="s">
-        <v>92</v>
+      <c r="P10" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="S10" s="95" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18"/>
-      <c r="D10" s="22"/>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="18"/>
+      <c r="D11" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Predictive-Score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4C17C2-BDE9-4DC5-A067-0E92EAF8618C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6159815-E99E-44C5-AA81-1D539F280D79}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{216833D0-3D1B-4F71-897C-3C2FA20E8075}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
   <si>
     <t>RID</t>
   </si>
@@ -349,15 +349,6 @@
   </si>
   <si>
     <t xml:space="preserve">  ACCOUNTANT EXCUCATIVE</t>
-  </si>
-  <si>
-    <t>BA-FT</t>
-  </si>
-  <si>
-    <t>MBA - Finance</t>
-  </si>
-  <si>
-    <t>AGRI-BUSS MNGT</t>
   </si>
 </sst>
 </file>
@@ -420,7 +411,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -540,40 +531,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -710,19 +672,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1037,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FC2904-9D94-4AEB-BDA2-EB230A9E6C67}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,522 +1068,479 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="96">
+    <row r="2" spans="1:19" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2">
         <v>88</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2">
+        <v>67</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2">
+        <v>1000</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>324</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>32</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>89</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3">
+        <v>88.8</v>
+      </c>
+      <c r="L3" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3">
+        <v>8000</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="89" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>56</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>49</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4">
+        <v>53.6</v>
+      </c>
+      <c r="L4" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4">
+        <v>3434</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="R4" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>45</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="96">
-        <v>31</v>
-      </c>
-      <c r="D2" s="98" t="s">
+      <c r="C5">
+        <v>77</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5">
+        <v>90</v>
+      </c>
+      <c r="L5" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5">
+        <v>56756</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="R5" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="S5" s="91" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="84.75" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>236</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>45</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="99" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="97" t="s">
+      <c r="E6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="96">
-        <v>51.9</v>
-      </c>
-      <c r="H2" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="I2" s="100" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="96">
+      <c r="G6">
+        <v>9.6</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6">
+        <v>7.7</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="61"/>
+      <c r="N6">
+        <v>52345</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="R6" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="S6" s="92" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>237</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>99</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7">
+        <v>6.6</v>
+      </c>
+      <c r="L7" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
+      <c r="N7">
+        <v>87675</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="S7" s="93" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="8" spans="1:19" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>978</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>94</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>78</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8">
+        <v>34.4</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8">
+        <v>2344</v>
+      </c>
+      <c r="O8">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3">
-        <v>88</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3">
-        <v>67</v>
-      </c>
-      <c r="L3" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="N3">
-        <v>1000</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
-      <c r="P3" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="R3" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="S3" s="88" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>324</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>32</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>89</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4">
-        <v>88.8</v>
-      </c>
-      <c r="L4" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="M4" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4">
-        <v>8000</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q4" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="R4" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="S4" s="89" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>56</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5">
-        <v>49</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5">
-        <v>53.6</v>
-      </c>
-      <c r="L5" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5">
-        <v>3434</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="P5" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q5" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="R5" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="S5" s="90" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>45</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>77</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6">
+      <c r="P8" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q8" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="S8" s="94" t="s">
         <v>90</v>
-      </c>
-      <c r="L6" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="N6">
-        <v>56756</v>
-      </c>
-      <c r="O6">
-        <v>6</v>
-      </c>
-      <c r="P6" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q6" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="R6" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="S6" s="91" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="84.75" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>236</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>45</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7">
-        <v>9.6</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7">
-        <v>7.7</v>
-      </c>
-      <c r="L7" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="61"/>
-      <c r="N7">
-        <v>52345</v>
-      </c>
-      <c r="O7">
-        <v>8</v>
-      </c>
-      <c r="P7" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q7" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="R7" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="S7" s="92" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>237</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>23</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8">
-        <v>99</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8">
-        <v>6.6</v>
-      </c>
-      <c r="L8" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8">
-        <v>87675</v>
-      </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q8" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="R8" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="S8" s="93" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>978</v>
+        <v>458</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>94</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>16</v>
+        <v>66</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G9">
-        <v>78</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="48" t="s">
-        <v>46</v>
+        <v>3.4</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>34.4</v>
-      </c>
-      <c r="L9" s="56" t="s">
-        <v>53</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L9" s="57" t="s">
+        <v>54</v>
       </c>
       <c r="M9" s="63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N9">
-        <v>2344</v>
+        <v>234324</v>
       </c>
       <c r="O9">
-        <v>8</v>
-      </c>
-      <c r="P9" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q9" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="R9" s="86" t="s">
-        <v>82</v>
-      </c>
-      <c r="S9" s="94" t="s">
-        <v>90</v>
+        <v>3</v>
+      </c>
+      <c r="P9" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="S9" s="95" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>458</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>66</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10">
-        <v>3.4</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L10" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10">
-        <v>234324</v>
-      </c>
-      <c r="O10">
-        <v>3</v>
-      </c>
-      <c r="P10" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q10" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="R10" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="S10" s="95" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="D11" s="22"/>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18"/>
+      <c r="D10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
